--- a/data/polesForElevator.xlsx
+++ b/data/polesForElevator.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="0" windowWidth="25120" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="760" windowWidth="25120" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quadratic" sheetId="2" r:id="rId1"/>
+    <sheet name="exponential(ARCHIVED)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Voltage</t>
   </si>
@@ -31,6 +32,24 @@
   </si>
   <si>
     <t>r^2</t>
+  </si>
+  <si>
+    <t>a*x^2 + b*x + c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>poles</t>
+  </si>
+  <si>
+    <t>Normalized to 0</t>
   </si>
 </sst>
 </file>
@@ -79,17 +98,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +458,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-4500</v>
+      </c>
+      <c r="B3">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="C3">
+        <v>-2.7016</v>
+      </c>
+      <c r="D3">
+        <v>40.29</v>
+      </c>
+      <c r="F3" t="e">
+        <f>(-C3+SQRT(C3^2-4*B3*D3))/(2*B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <f>(-C3-SQRT(C3^2-4*B3*D3))/(2*B3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-3000</v>
+      </c>
+      <c r="B4">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>-2.2860999999999998</v>
+      </c>
+      <c r="D4">
+        <v>38.905999999999999</v>
+      </c>
+      <c r="F4" t="e">
+        <f t="shared" ref="F4:F8" si="0">(-C4+SQRT(C4^2-4*B4*D4))/(2*B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" ref="G4:G8" si="1">(-C4-SQRT(C4^2-4*B4*D4))/(2*B4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-1000</v>
+      </c>
+      <c r="B5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C5">
+        <v>-0.4078</v>
+      </c>
+      <c r="D5">
+        <v>33.186</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C6">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>18.047999999999998</v>
+      </c>
+      <c r="F6" t="e">
+        <f>(-C6+SQRT(C6^2-4*B6*D6))/(2*B6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.153</v>
+      </c>
+      <c r="D7">
+        <v>17.568000000000001</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4500</v>
+      </c>
+      <c r="B8">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>17.059000000000001</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>3000</v>
+      </c>
+      <c r="B17">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.15440000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3250</v>
+      </c>
+      <c r="B18">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3500</v>
+      </c>
+      <c r="B19">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.14449999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3750</v>
+      </c>
+      <c r="B20">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>4000</v>
+      </c>
+      <c r="B21">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.15620000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>4500</v>
+      </c>
+      <c r="B23">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="C23">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/polesForElevator.xlsx
+++ b/data/polesForElevator.xlsx
@@ -134,6 +134,190 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quadratic!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3750.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quadratic!$B$16:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2092893352"/>
+        <c:axId val="-2091937544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2092893352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091937544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2091937544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092893352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,13 +642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
@@ -653,8 +840,18 @@
       <c r="A16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C16">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <f>B16/A16</f>
+        <v>5.9999999999999997E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3000</v>
       </c>
@@ -664,8 +861,12 @@
       <c r="C17">
         <v>0.15440000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <f t="shared" ref="E17:E23" si="2">B17/A17</f>
+        <v>1.2266666666666667E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3250</v>
       </c>
@@ -675,8 +876,12 @@
       <c r="C18">
         <v>0.1613</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>6.8307692307692307E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3500</v>
       </c>
@@ -686,8 +891,12 @@
       <c r="C19">
         <v>0.14449999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.628571428571429E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3750</v>
       </c>
@@ -697,8 +906,12 @@
       <c r="C20">
         <v>0.1656</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>7.8133333333333336E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4000</v>
       </c>
@@ -708,8 +921,12 @@
       <c r="C21">
         <v>0.15620000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>8.6250000000000013E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>4500</v>
       </c>
@@ -718,11 +935,22 @@
       </c>
       <c r="C23">
         <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.4800000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25">
+        <f>AVERAGE(B17:B21)</f>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
